--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WEGO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E46D57A5-757D-4BD8-8C14-0E1174A8DB4F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00583A25-C8E4-4699-A659-E0C6F7DC33A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3139,7 +3139,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="R123" sqref="R123"/>
     </sheetView>
   </sheetViews>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00583A25-C8E4-4699-A659-E0C6F7DC33A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F0AA818-AD39-498A-B409-FAA689663F2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
+    <sheet name="特效紀錄" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="305">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1167,6 +1168,78 @@
   </si>
   <si>
     <t>獲得無敵護盾，被攻擊到消失，最多2層，超過不會出現</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI使用字體</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲標題</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noto Sans CJK TC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鈕文字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloodEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounceEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiny</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldhit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效名稱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到非護盾部位的噴血特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞到牆壁的反彈特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡的特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到非護盾部位時，以目標圓心散發的擊中提示特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打度護盾部位的特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>球飛行時拖曳的特效</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1814,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1864,6 +1937,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3138,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3187,7 +3269,7 @@
       <c r="B2" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>245</v>
       </c>
       <c r="D2" s="8"/>
@@ -3215,7 +3297,7 @@
       <c r="B3" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="17" t="s">
         <v>251</v>
       </c>
       <c r="D3" s="8"/>
@@ -3543,7 +3625,9 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3556,8 +3640,12 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3569,8 +3657,12 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>289</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3682,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="R123" sqref="R123"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3691,6 +3783,84 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6E9FFD-6E4E-49D1-9D91-BAEAB0A5E748}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F0AA818-AD39-498A-B409-FAA689663F2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6205938D-DBBC-4F0D-BE85-6511F3B9A877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="309">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1203,10 +1203,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>shiny</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>shieldhit</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1231,15 +1227,35 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>打到非護盾部位時，以目標圓心散發的擊中提示特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打度護盾部位的特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>球飛行時拖曳的特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail_star</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounceEffectPower</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞到強化牆壁的反彈特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到非護盾部位時，擊中點中心產生的擊中提示特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到護盾部位時，擊中點中心產生的擊中提示特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail_shiny</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞到強化牆壁後，增強威力的球飛行拖曳特效</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3788,25 +3804,25 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6E9FFD-6E4E-49D1-9D91-BAEAB0A5E748}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="51.625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3814,7 +3830,7 @@
         <v>291</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,31 +3838,31 @@
         <v>292</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3854,7 +3870,23 @@
         <v>295</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6205938D-DBBC-4F0D-BE85-6511F3B9A877}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08FC171A-5827-4432-8BE6-A8C984530790}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,14 +1215,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>打到非護盾部位的噴血特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>撞到牆壁的反彈特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡的特效</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1243,19 +1235,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>打到非護盾部位時，擊中點中心產生的擊中提示特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打到護盾部位時，擊中點中心產生的擊中提示特效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>trail_shiny</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>撞到強化牆壁後，增強威力的球飛行拖曳特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到非護盾部位時，以被擊中目標的中心點產生的擊中提示特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到非護盾部位的噴血特效，只有180度需調整方向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞到牆壁的反彈特效，只有180度需調整方向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到護盾部位時，擊中點中心產生的擊中提示特效，只有180度需調整方向</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3807,13 +3807,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="51.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -3830,7 +3830,7 @@
         <v>291</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,15 +3838,15 @@
         <v>292</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3854,7 +3854,7 @@
         <v>293</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3870,23 +3870,23 @@
         <v>295</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08FC171A-5827-4432-8BE6-A8C984530790}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E823F080-EC81-41AD-808E-DDCE2A63C996}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="311">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1256,6 +1256,14 @@
   </si>
   <si>
     <t>打到護盾部位時，擊中點中心產生的擊中提示特效，只有180度需調整方向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail_arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊箭頭飛行的拖曳特效</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3804,10 +3812,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6E9FFD-6E4E-49D1-9D91-BAEAB0A5E748}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3887,6 +3895,14 @@
       </c>
       <c r="B9" s="19" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E823F080-EC81-41AD-808E-DDCE2A63C996}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{833A66A6-18AB-452A-ABE4-225984F74E75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
-    <sheet name="特效紀錄" sheetId="12" r:id="rId12"/>
+    <sheet name="使用元件紀錄" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="344">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1265,6 +1265,131 @@
   <si>
     <t>敵人攻擊箭頭飛行的拖曳特效</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到非護盾部位的噴血音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到牆壁的反彈音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到強化牆壁的反彈音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_hit_blood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_hit_bounce</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_hit_bounce_power</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_death</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>綁帳號、排行榜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用介面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡的音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到護盾部位的音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_hit_shield</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_trail_shiny</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_trail_star</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_trail_arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_button</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鍵音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_battle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥場景的背景音樂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_main</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>非戰鬥場景的通用背景音樂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>球飛行時拖曳的音效，loop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊箭頭飛行的拖曳音效，loop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞到強化牆壁後，增強威力的球飛行拖曳音效，loop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfx_shoot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射擊發出的音效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.looperman.com/loops/detail/112717/hbs-ambient-synth-g-140bpm-by-hbsamples-free-140bpm-ambient-synth-loop</t>
+  </si>
+  <si>
+    <t>https://www.looperman.com/loops/detail/111860/hbs-endless-orchestral-drums-loop-115bpm-by-hbsamples-free-115bpm-cinematic-drum-loop</t>
+  </si>
+  <si>
+    <t>https://www.looperman.com/loops/detail/117981/hbs-gunz-electric-guitar-solo-c-80bpm-by-hbsamples-free-80bpm-rock-electric-guitar-loop</t>
+  </si>
+  <si>
+    <t>https://www.looperman.com/loops/detail/126353/hbs-hz-stellar-part-1-organs-c-80bpm-by-hbsamples-free-80bpm-cinematic-organ-loop</t>
+  </si>
+  <si>
+    <t>https://www.looperman.com/loops/detail/121137/hbs-va-bass-guitar-c-80bpm-by-hbsamples-free-80bpm-pop-bass-guitar-loop</t>
+  </si>
+  <si>
+    <t>https://www.looperman.com/loops/detail/130065/hardstyle-inspired-synth-chords-150bpm-electronic-synth-loop</t>
+  </si>
+  <si>
+    <t>https://www.looperman.com/loops?page=11&amp;mid=hbsamples</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +2036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1970,6 +2095,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3245,7 +3376,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3349,7 +3480,7 @@
       <c r="B4" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="17" t="s">
         <v>257</v>
       </c>
       <c r="D4" s="8"/>
@@ -3454,7 +3585,9 @@
         <v>280</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
         <v>281</v>
@@ -3483,7 +3616,9 @@
         <v>204</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
         <v>205</v>
@@ -3812,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6E9FFD-6E4E-49D1-9D91-BAEAB0A5E748}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3903,6 +4038,145 @@
       </c>
       <c r="B10" s="19" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{833A66A6-18AB-452A-ABE4-225984F74E75}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F565347-DC21-43EA-9D42-C50950CD4E6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
     <sheet name="使用元件紀錄" sheetId="12" r:id="rId12"/>
+    <sheet name="工作表1" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="353">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1390,6 +1391,40 @@
   </si>
   <si>
     <t>https://www.looperman.com/loops?page=11&amp;mid=hbsamples</t>
+  </si>
+  <si>
+    <t>y 8</t>
+  </si>
+  <si>
+    <t>s 43</t>
+  </si>
+  <si>
+    <t>左邊Parameters新增參數</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉關聯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊關連線開啟屬性視窗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has Exit Time不打勾，打勾表時直接進入連接的狀態</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixd Duration不打勾，打勾表示使用動畫漸變功能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transition Duration設為零，此處控制漸變長度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conditions新增條件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2858,6 +2893,467 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="36932" t="4722" r="20563" b="56014"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333374" y="114300"/>
+          <a:ext cx="7772401" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292989</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="47714" t="4908" b="33232"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="4343399"/>
+          <a:ext cx="9560814" cy="6362701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="533400"/>
+          <a:ext cx="2124075" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943476" y="3609975"/>
+          <a:ext cx="723900" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248401" y="6248400"/>
+          <a:ext cx="1552574" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="6819900"/>
+          <a:ext cx="3448049" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="9220199"/>
+          <a:ext cx="3543300" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -3375,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3508,7 +4004,7 @@
       <c r="B5" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>263</v>
       </c>
       <c r="D5" s="8"/>
@@ -3534,7 +4030,7 @@
       <c r="B6" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>269</v>
       </c>
       <c r="D6" s="8"/>
@@ -3947,10 +4443,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6E9FFD-6E4E-49D1-9D91-BAEAB0A5E748}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3960,7 +4456,7 @@
     <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>296</v>
       </c>
@@ -3968,7 +4464,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>291</v>
       </c>
@@ -3976,7 +4472,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>292</v>
       </c>
@@ -3984,7 +4480,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>301</v>
       </c>
@@ -3992,7 +4488,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>293</v>
       </c>
@@ -4000,7 +4496,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>294</v>
       </c>
@@ -4008,23 +4504,29 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>295</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>303</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>300</v>
       </c>
@@ -4032,7 +4534,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>309</v>
       </c>
@@ -4040,7 +4542,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>296</v>
       </c>
@@ -4048,7 +4550,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>314</v>
       </c>
@@ -4056,7 +4558,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>315</v>
       </c>
@@ -4064,7 +4566,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>316</v>
       </c>
@@ -4072,7 +4574,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>317</v>
       </c>
@@ -4183,6 +4685,58 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC6EBE3-80A1-4BAE-B39C-ADD799E2B935}">
+  <dimension ref="M2:P26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F565347-DC21-43EA-9D42-C50950CD4E6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6843681A-98C5-4741-82FE-18393016B3FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3872,7 +3872,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3980,7 +3980,7 @@
         <v>257</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="17" t="s">
         <v>258</v>
       </c>
       <c r="F4" s="8"/>
@@ -4008,7 +4008,7 @@
         <v>263</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>264</v>
       </c>
       <c r="F5" s="8"/>
@@ -4034,7 +4034,7 @@
         <v>269</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>270</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -4056,7 +4056,7 @@
         <v>274</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="12" t="s">
         <v>275</v>
       </c>
       <c r="F7" s="8"/>
@@ -4081,11 +4081,11 @@
         <v>280</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>318</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>281</v>
       </c>
       <c r="F8" s="8"/>
@@ -4116,7 +4116,7 @@
         <v>319</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>205</v>
       </c>
       <c r="F9" s="8"/>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6843681A-98C5-4741-82FE-18393016B3FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +20,14 @@
     <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
     <sheet name="使用元件紀錄" sheetId="12" r:id="rId12"/>
     <sheet name="工作表1" sheetId="13" r:id="rId13"/>
+    <sheet name="banner尺寸" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="359">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1424,13 +1419,37 @@
   </si>
   <si>
     <t>Conditions新增條件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>512x512</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024x500</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>180x120</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280x720</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣傳影片網址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APICON1_92x1920</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2216,7 +2235,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2293,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2346,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2399,7 @@
         <xdr:cNvPr id="2051" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2452,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2505,7 @@
         <xdr:cNvPr id="2053" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2558,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2611,7 @@
         <xdr:cNvPr id="2055" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2664,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2717,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2783,7 @@
         <xdr:cNvPr id="12" name="直線單箭頭接點 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2841,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2884,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2932,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2975,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +3018,7 @@
         <xdr:cNvPr id="4" name="矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3092,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3166,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3240,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +3314,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +3416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3430,26 +3449,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3482,23 +3484,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3674,7 +3659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3868,10 +3853,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4426,7 +4411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -4442,10 +4427,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6E9FFD-6E4E-49D1-9D91-BAEAB0A5E748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4689,7 +4674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC6EBE3-80A1-4BAE-B39C-ADD799E2B935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,8 +4725,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4803,7 +4834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5127,7 +5158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5231,7 +5262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5341,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5483,7 +5514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5608,7 +5639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5664,7 +5695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB2C1203-D7E3-4191-B493-959ED69B2B09}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,12 @@
     <sheet name="工作表1" sheetId="13" r:id="rId13"/>
     <sheet name="banner尺寸" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="365">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1442,14 +1448,38 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>APICON1_92x1920</t>
+    <t>高解析度圖示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主題圖片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣傳圖片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>電視橫幅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>360度立體視覺圖片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APICON1_192x192</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>appicon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2235,7 +2265,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2323,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2376,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2429,7 @@
         <xdr:cNvPr id="2051" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2482,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2535,7 @@
         <xdr:cNvPr id="2053" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2588,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2641,7 @@
         <xdr:cNvPr id="2055" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2694,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2747,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2813,7 @@
         <xdr:cNvPr id="12" name="直線單箭頭接點 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2871,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2914,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2962,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +3005,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +3048,7 @@
         <xdr:cNvPr id="4" name="矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,7 +3122,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3196,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3270,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3314,7 +3344,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3449,9 +3479,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3484,6 +3531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3659,7 +3723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -4427,7 +4491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -4674,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="M2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4726,53 +4790,122 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>512</v>
+      </c>
+      <c r="D1">
+        <v>512</v>
+      </c>
+      <c r="E1">
+        <f>C1/D1</f>
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1024</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E5" si="0">C2/D2</f>
+        <v>2.048</v>
+      </c>
+      <c r="F2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1280</v>
+      </c>
+      <c r="D4">
+        <v>720</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="F4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>1920</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.791666666666667E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>358</v>
+        <v>363</v>
+      </c>
+      <c r="F6" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4834,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5158,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5262,7 +5395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5372,7 +5505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5514,7 +5647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5639,7 +5772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5695,7 +5828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB2C1203-D7E3-4191-B493-959ED69B2B09}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CE8685C-12D3-4664-8E7C-3BA00367838E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="369">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1473,6 +1473,22 @@
   </si>
   <si>
     <t>appicon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到牆壁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到玩家或敵人</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1656,7 +1672,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1860,6 +1876,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2120,7 +2142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2185,6 +2207,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4492,10 +4520,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4728,6 +4756,22 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -4794,7 +4838,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4813,7 +4857,7 @@
         <f>C1/D1</f>
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="22" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4831,7 +4875,7 @@
         <f t="shared" ref="E2:E5" si="0">C2/D2</f>
         <v>2.048</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="22" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4849,7 +4893,7 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="22" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4885,7 +4929,7 @@
         <f t="shared" si="0"/>
         <v>4.791666666666667E-2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="23" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4893,7 +4937,7 @@
       <c r="A6" t="s">
         <v>363</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="23" t="s">
         <v>364</v>
       </c>
     </row>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6CE8685C-12D3-4664-8E7C-3BA00367838E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7E8AE1E-A2AC-4096-8293-A8F9D2388DB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="411">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -945,38 +945,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>弱點</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>護盾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>敵人&amp;玩家血量</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>敵人攻擊傷害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻擊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S攻擊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>U攻擊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>待作功能</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1489,6 +1461,201 @@
   </si>
   <si>
     <t>打到玩家或敵人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次升級傷害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊傷害(穿)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊傷害(盾)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方攻擊傷害(穿)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方攻擊傷害(盾)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>倍率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人升級血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人升級傷害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊頻率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人血量加倍回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家被1擊殺回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方血量加倍回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人被1擊殺回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化塊加成傷害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>star mam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>星人</t>
+  </si>
+  <si>
+    <t>問題點</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neon demon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>霓虹惡魔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>點暫停會變成向下射</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>點按鈕不會轉動到方向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neon dog</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>霓虹犬</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有射擊線提示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>new line</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新界線</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的盾打到不會消失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到一次就消失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion head</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子頭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有出現廣告</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">G.M.M </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give Me Money</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>升級的選項按鈕還是小的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.D.C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Day Cool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色的層級錯誤，會被圈圈蓋掉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值需要再調整</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>力道加上速度變化但不改變角度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入力道沒有提示不明顯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化射擊線提示(反射角)或移除力道增加反彈強化塊使玩家多彈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊要命中不太容易</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊變成每隔一段時間會自動射出來</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有血量提示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到盾的特效位置偏掉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>反彈的音效慢了一點</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>團隊名稱</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1496,7 +1663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1671,8 +1838,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1882,6 +2057,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2142,7 +2323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2213,6 +2394,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3946,10 +4151,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3959,229 +4164,229 @@
     <col min="3" max="3" width="13.875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="9"/>
     <col min="7" max="7" width="13.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="9"/>
+    <col min="8" max="8" width="14.5" style="9" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="M1" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="M3" s="9" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="17" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="M4" s="9" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="M7" s="13" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K8" s="8"/>
       <c r="M8" s="13" t="s">
         <v>195</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4190,7 +4395,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12" t="s">
@@ -4290,7 +4495,9 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
         <v>221</v>
@@ -4307,7 +4514,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>202</v>
       </c>
@@ -4316,8 +4523,12 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="I14" s="8" t="s">
         <v>225</v>
       </c>
@@ -4333,100 +4544,132 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="K15" s="14"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>389</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="I19" s="7" t="s">
         <v>229</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>230</v>
+        <v>367</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="I20" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J20" s="8">
-        <v>30</v>
-      </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24">
+        <v>100</v>
+      </c>
+      <c r="M20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4435,16 +4678,17 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="J21" s="8">
-        <v>20</v>
-      </c>
-      <c r="K21" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="J21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="26">
+        <f>K20*J21</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4453,16 +4697,20 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J22" s="8">
-        <v>10</v>
-      </c>
-      <c r="K22" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+      <c r="K22" s="27">
+        <f>K20*J22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4471,29 +4719,296 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J23" s="8">
+      <c r="I23" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="J23" s="29">
+        <f>0.5/(M20-1)</f>
+        <v>0.125</v>
+      </c>
+      <c r="K23" s="27">
+        <f>K20*J23</f>
+        <v>12.5</v>
+      </c>
+      <c r="M23" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I24" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="J24" s="28">
+        <f>(1-J21)/(M23-1)</f>
+        <v>0.125</v>
+      </c>
+      <c r="K24" s="27">
+        <f>K20*J24</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J28" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="K28" s="27">
+        <f>K20*J28</f>
+        <v>34</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K29" s="27">
+        <f>K20*J29</f>
         <v>20</v>
       </c>
-      <c r="K23" s="8">
+      <c r="M29" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I24" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="J24" s="8">
-        <v>30</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I25" s="8"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J30" s="28">
+        <f>(1-J28)/2</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="K30" s="26">
+        <f>K20*J30</f>
+        <v>32.999999999999993</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="J31" s="29">
+        <f>(1-J28)/(M29-1)</f>
+        <v>7.333333333333332E-2</v>
+      </c>
+      <c r="K31" s="26">
+        <f>K20*J31</f>
+        <v>7.3333333333333321</v>
+      </c>
+      <c r="M31" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="K40" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4535,243 +5050,243 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4793,37 +5308,37 @@
   <sheetData>
     <row r="2" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P22" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P24" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P25" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P26" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4837,15 +5352,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C1">
         <v>512</v>
@@ -4858,12 +5373,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C2">
         <v>1024</v>
@@ -4876,12 +5391,12 @@
         <v>2.048</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -4894,12 +5409,12 @@
         <v>1.5</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C4">
         <v>1280</v>
@@ -4912,12 +5427,12 @@
         <v>1.7777777777777777</v>
       </c>
       <c r="F4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C5">
         <v>92</v>
@@ -4930,15 +5445,15 @@
         <v>4.791666666666667E-2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7E8AE1E-A2AC-4096-8293-A8F9D2388DB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +22,12 @@
     <sheet name="工作表1" sheetId="13" r:id="rId13"/>
     <sheet name="banner尺寸" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="412">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1575,94 +1569,98 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>打到一次就消失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion head</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>獅子頭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有出現廣告</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">G.M.M </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give Me Money</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>升級的選項按鈕還是小的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.D.C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Day Cool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色的層級錯誤，會被圈圈蓋掉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值需要再調整</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>力道加上速度變化但不改變角度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入力道沒有提示不明顯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化射擊線提示(反射角)或移除力道增加反彈強化塊使玩家多彈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊要命中不太容易</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人攻擊變成每隔一段時間會自動射出來</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有血量提示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到盾的特效位置偏掉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>反彈的音效慢了一點</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>團隊名稱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>自己的盾打到不會消失</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>打到一次就消失</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lion head</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>獅子頭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒有出現廣告</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">G.M.M </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Give Me Money</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>升級的選項按鈕還是小的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A.D.C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Day Cool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色的層級錯誤，會被圈圈蓋掉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>數值需要再調整</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>力道加上速度變化但不改變角度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入力道沒有提示不明顯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>強化射擊線提示(反射角)或移除力道增加反彈強化塊使玩家多彈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵人攻擊要命中不太容易</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵人攻擊變成每隔一段時間會自動射出來</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>沒有血量提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>打到盾的特效位置偏掉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>反彈的音效慢了一點</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>團隊名稱</t>
+    <t>ok</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2498,7 +2496,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2554,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2607,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2660,7 @@
         <xdr:cNvPr id="2051" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2713,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2766,7 @@
         <xdr:cNvPr id="2053" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2819,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2872,7 @@
         <xdr:cNvPr id="2055" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2925,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2978,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3044,7 @@
         <xdr:cNvPr id="12" name="直線單箭頭接點 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3102,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3145,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3195,7 +3193,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,7 +3236,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3281,7 +3279,7 @@
         <xdr:cNvPr id="4" name="矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,7 +3353,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3427,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3503,7 +3501,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3575,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3712,26 +3710,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3764,23 +3745,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3956,7 +3920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4150,11 +4115,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表10"/>
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4462,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
@@ -4606,10 +4572,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -4627,10 +4593,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>229</v>
@@ -4653,10 +4619,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>230</v>
@@ -4826,7 +4792,10 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>383</v>
       </c>
@@ -4842,7 +4811,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>387</v>
       </c>
@@ -4856,14 +4825,17 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G35" s="3"/>
       <c r="K35" s="3"/>
@@ -4872,9 +4844,9 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4886,9 +4858,9 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4900,9 +4872,12 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -4914,9 +4889,12 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -4928,31 +4906,37 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G40" s="3"/>
       <c r="K40" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G41" s="3"/>
       <c r="K41" s="3"/>
@@ -4961,9 +4945,9 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4975,9 +4959,12 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>411</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4989,9 +4976,9 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -5003,7 +4990,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -5018,7 +5005,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -5034,7 +5022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表12"/>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5297,7 +5286,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表13"/>
   <dimension ref="M2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5349,7 +5339,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表14"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5464,7 +5455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5526,7 +5518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5850,7 +5843,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表4"/>
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5954,7 +5948,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6064,7 +6059,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6206,7 +6202,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6331,7 +6328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表8"/>
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6387,7 +6385,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表9"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFD40848-C366-4CE8-A76F-094820DA1AB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,12 @@
     <sheet name="工作表1" sheetId="13" r:id="rId13"/>
     <sheet name="banner尺寸" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="424">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1135,10 +1141,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>獲得無敵護盾，被攻擊到消失，最多2層，超過不會出現</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>UI使用字體</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1569,6 +1571,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>自己的盾打到不會消失</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>打到一次就消失</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1637,31 +1643,79 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>打到盾的特效位置偏掉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>反彈的音效慢了一點</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>團隊名稱</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>自己的盾打到不會消失</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>增加額外加分選項</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡數改成當前分數</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>關卡增加複數敵人?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加加分的即時文字顯示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一擊殺特別分數</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲得無敵護盾，被攻擊到消失，最多1層，超過不會出現</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb沒用是不是要拿掉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紙娃娃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛行道具</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾特效位置偏掉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音樂按鈕拿掉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改名稱每次進入會重製名稱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>要給玩家預設名稱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>結算和玩家紀錄拿掉post按鈕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>聲音關掉後還是有按鈕音</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1836,16 +1890,8 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2061,6 +2107,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2321,7 +2373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2412,10 +2464,7 @@
     <xf numFmtId="10" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2496,7 +2545,7 @@
         <xdr:cNvPr id="3073" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2603,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2656,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2709,7 @@
         <xdr:cNvPr id="2051" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2762,7 @@
         <xdr:cNvPr id="2052" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2815,7 @@
         <xdr:cNvPr id="2053" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2868,7 @@
         <xdr:cNvPr id="2054" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2921,7 @@
         <xdr:cNvPr id="2055" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2974,7 @@
         <xdr:cNvPr id="2056" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +3027,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3093,7 @@
         <xdr:cNvPr id="12" name="直線單箭頭接點 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3102,7 +3151,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F870D6C6-29C2-4032-A615-F72FACDDD794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3194,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51155A5-0A3F-49CA-8527-FC47A66F5DA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3242,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA72926A-ACC1-4497-B02E-CD1F95A8DD56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3285,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C1C629-2764-493F-9C17-2A51B4CF2E72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3279,7 +3328,7 @@
         <xdr:cNvPr id="4" name="矩形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295719E8-D5C3-4BDC-B6D0-F2AB03D93D69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3402,7 @@
         <xdr:cNvPr id="5" name="矩形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0D5D1-2270-4BC0-8CD9-C1358C171F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3476,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CB10D1-AC90-4E61-A991-50F780834A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3550,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7129C712-E302-47A7-B74D-02016D5673C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,7 +3624,7 @@
         <xdr:cNvPr id="8" name="矩形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BA39DD-1C43-45FE-A4D8-4B4E4DAE8D87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3710,9 +3759,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3745,6 +3811,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3920,8 +4003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4115,12 +4197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表10"/>
-  <dimension ref="A1:O45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4411,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12" t="s">
@@ -4352,7 +4433,7 @@
         <v>195</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>279</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4361,7 +4442,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12" t="s">
@@ -4462,7 +4543,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
@@ -4480,7 +4561,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>202</v>
       </c>
@@ -4489,11 +4570,11 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>225</v>
@@ -4510,118 +4591,118 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>385</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="9" t="s">
         <v>392</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="9" t="s">
         <v>395</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>229</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>368</v>
-      </c>
       <c r="M19" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="9" t="s">
         <v>398</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -4644,7 +4725,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J21" s="25">
         <v>0.5</v>
@@ -4663,7 +4744,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J22" s="25">
         <v>0</v>
@@ -4673,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4686,7 +4767,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J23" s="29">
         <f>0.5/(M20-1)</f>
@@ -4702,7 +4783,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I24" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J24" s="28">
         <f>(1-J21)/(M23-1)</f>
@@ -4715,15 +4796,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I25" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I28" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J28" s="25">
         <v>0.34</v>
@@ -4733,19 +4814,15 @@
         <v>34</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J29" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="K29" s="27">
-        <f>K20*J29</f>
-        <v>20</v>
+        <v>0.6</v>
       </c>
       <c r="M29" s="9">
         <v>10</v>
@@ -4753,7 +4830,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J30" s="28">
         <f>(1-J28)/2</f>
@@ -4764,12 +4841,12 @@
         <v>32.999999999999993</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I31" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J31" s="29">
         <f>(1-J28)/(M29-1)</f>
@@ -4783,219 +4860,145 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="I34" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="I36" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="M37" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="M38" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="F40" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="30"/>
+      <c r="C41" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="30"/>
+      <c r="C42" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="30"/>
+      <c r="C43" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C40" s="3" t="s">
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="K40" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -5005,8 +5008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -5022,8 +5024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5039,243 +5040,243 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>321</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5286,8 +5287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="M2:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5298,37 +5298,37 @@
   <sheetData>
     <row r="2" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5339,8 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5351,7 +5350,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C1">
         <v>512</v>
@@ -5364,12 +5363,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2">
         <v>1024</v>
@@ -5382,12 +5381,12 @@
         <v>2.048</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -5400,12 +5399,12 @@
         <v>1.5</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>1280</v>
@@ -5418,12 +5417,12 @@
         <v>1.7777777777777777</v>
       </c>
       <c r="F4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5">
         <v>92</v>
@@ -5436,15 +5435,15 @@
         <v>4.791666666666667E-2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5455,8 +5454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5518,12 +5516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5843,8 +5840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5948,8 +5944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6059,8 +6054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6202,8 +6196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6328,8 +6321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6385,8 +6377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFD40848-C366-4CE8-A76F-094820DA1AB7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19E82837-740D-4030-9125-445D628BF08F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="427">
   <si>
     <t>死亡連鎖發生時暫停時間(怪物前進、玩家武器射擊)表演爆炸</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1615,34 +1615,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>數值需要再調整</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>力道加上速度變化但不改變角度</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>加入力道沒有提示不明顯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>強化射擊線提示(反射角)或移除力道增加反彈強化塊使玩家多彈</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>敵人攻擊要命中不太容易</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>敵人攻擊變成每隔一段時間會自動射出來</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>沒有血量提示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>團隊名稱</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1708,6 +1692,34 @@
   </si>
   <si>
     <t>聲音關掉後還是有按鈕音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPICON</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical hit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield hit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>comboX2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>+6</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2373,7 +2385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2465,6 +2477,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4198,10 +4213,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4433,7 +4448,7 @@
         <v>195</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4543,7 +4558,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
@@ -4603,6 +4618,12 @@
       <c r="H15" s="9" t="s">
         <v>381</v>
       </c>
+      <c r="I15" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>421</v>
+      </c>
       <c r="K15" s="14"/>
       <c r="L15" s="13"/>
     </row>
@@ -4618,8 +4639,12 @@
       <c r="H16" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>424</v>
+      </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -4637,8 +4662,12 @@
       <c r="H17" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>426</v>
+      </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -4710,7 +4739,7 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M20" s="9">
         <v>5</v>
@@ -4732,7 +4761,7 @@
       </c>
       <c r="K21" s="26">
         <f>K20*J21</f>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -4775,7 +4804,7 @@
       </c>
       <c r="K23" s="27">
         <f>K20*J23</f>
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="M23" s="9">
         <v>5</v>
@@ -4791,7 +4820,7 @@
       </c>
       <c r="K24" s="27">
         <f>K20*J24</f>
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4807,11 +4836,11 @@
         <v>364</v>
       </c>
       <c r="J28" s="25">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="K28" s="27">
         <f>K20*J28</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>374</v>
@@ -4822,23 +4851,22 @@
         <v>365</v>
       </c>
       <c r="J29" s="25">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="M29" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="J30" s="28">
-        <f>(1-J28)/2</f>
-        <v>0.32999999999999996</v>
+      <c r="J30" s="31">
+        <v>1</v>
       </c>
       <c r="K30" s="26">
-        <f>K20*J30</f>
-        <v>32.999999999999993</v>
+        <f>K28*J30</f>
+        <v>25</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>375</v>
@@ -4850,14 +4878,14 @@
       </c>
       <c r="J31" s="29">
         <f>(1-J28)/(M29-1)</f>
-        <v>7.333333333333332E-2</v>
+        <v>0.125</v>
       </c>
       <c r="K31" s="26">
         <f>K20*J31</f>
-        <v>7.3333333333333321</v>
+        <v>6.25</v>
       </c>
       <c r="M31" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4865,7 +4893,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="30" t="s">
         <v>382</v>
       </c>
@@ -4873,131 +4901,113 @@
         <v>383</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="30" t="s">
         <v>389</v>
       </c>
       <c r="F34" s="13"/>
       <c r="I34" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="K34" s="9" t="s">
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="30" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="30" t="s">
-        <v>418</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>390</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="30" t="s">
         <v>399</v>
       </c>
       <c r="F36" s="13"/>
       <c r="I36" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="30" t="s">
         <v>386</v>
       </c>
       <c r="F37" s="13"/>
       <c r="M37" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="9" t="s">
-        <v>393</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="30" t="s">
+        <v>418</v>
       </c>
       <c r="F38" s="13"/>
       <c r="M38" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="30" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="9" t="s">
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
-        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6058,7 +6068,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Designer/廢物彈珠.xlsx
+++ b/Designer/廢物彈珠.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTG_PROJECT\PROJECT_KAM\Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19E82837-740D-4030-9125-445D628BF08F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EF8AC71-EB9E-4757-BF38-110B77E1C8C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="12105" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,10 +865,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>回復10血量，全滿不出現</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>GOOGLE分析</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -921,10 +917,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>彈跳傷害+10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>連續擊中弱點</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1720,6 +1712,14 @@
   </si>
   <si>
     <t>+6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回復20%血量，全滿不出現</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈跳傷害+5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4215,8 +4215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4233,222 +4233,222 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="M1" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="M3" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="M4" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="M7" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K8" s="8"/>
       <c r="M8" s="13" t="s">
         <v>195</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="12" t="s">
@@ -4474,7 +4474,7 @@
         <v>209</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>210</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4502,7 +4502,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4512,20 +4512,20 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="M11" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4535,22 +4535,22 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="K12" s="8"/>
       <c r="M12" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -4558,22 +4558,22 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>224</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -4586,24 +4586,24 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -4613,16 +4613,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="13"/>
@@ -4634,22 +4634,22 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4657,35 +4657,35 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -4693,32 +4693,32 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -4729,13 +4729,13 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24">
@@ -4754,7 +4754,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J21" s="25">
         <v>0.5</v>
@@ -4773,7 +4773,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J22" s="25">
         <v>0</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4796,7 +4796,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J23" s="29">
         <f>0.5/(M20-1)</f>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I24" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J24" s="28">
         <f>(1-J21)/(M23-1)</f>
@@ -4825,15 +4825,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I25" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I28" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J28" s="25">
         <v>0.5</v>
@@ -4843,12 +4843,12 @@
         <v>25</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I29" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J29" s="25">
         <v>0.25</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I30" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J30" s="31">
         <v>1</v>
@@ -4869,12 +4869,12 @@
         <v>25</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I31" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J31" s="29">
         <f>(1-J28)/(M29-1)</f>
@@ -4890,124 +4890,124 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C34" s="30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F34" s="13"/>
       <c r="I34" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C35" s="30" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F36" s="13"/>
       <c r="I36" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F37" s="13"/>
       <c r="M37" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F38" s="13"/>
       <c r="M38" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C39" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="30" t="s">
         <v>417</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="9" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5050,243 +5050,243 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>358</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5308,37 +5308,37 @@
   <sheetData>
     <row r="2" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5360,7 +5360,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1">
         <v>512</v>
@@ -5373,12 +5373,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C2">
         <v>1024</v>
@@ -5391,12 +5391,12 @@
         <v>2.048</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3">
         <v>180</v>
@@ -5409,12 +5409,12 @@
         <v>1.5</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C4">
         <v>1280</v>
@@ -5427,12 +5427,12 @@
         <v>1.7777777777777777</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>92</v>
@@ -5445,15 +5445,15 @@
         <v>4.791666666666667E-2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
